--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="121">
   <si>
     <t>RandomUser476</t>
   </si>
@@ -1390,6 +1390,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
